--- a/rangos_rds.xlsx
+++ b/rangos_rds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchojllu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\agonzales\Desktop\CARPETA QUE USARE\Comercial\precios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38262DC7-0FF2-402F-9379-446CE07A4173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79C596E-9A27-44E3-81D4-5E886B76A83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>STOP AGE</t>
   </si>
   <si>
-    <t>ADD +1.00 A +3.00</t>
-  </si>
-  <si>
     <t>RODENSTOCK BIG NORM</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>68acdcae5c7249cd560ce6b9</t>
   </si>
   <si>
-    <t>ADD +3.25 A +3.50</t>
-  </si>
-  <si>
     <t>68acdd0da9109d147309d073</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t>VISION SENCILLA</t>
   </si>
   <si>
-    <t>HASTA -12.00 ESF. COMBINADO CON CILINDROS  DESDE -0.25 HASTA CIL-6.00</t>
-  </si>
-  <si>
     <t>RODENSTOCK MYCOM</t>
   </si>
   <si>
@@ -745,16 +736,25 @@
   </si>
   <si>
     <t>RD ADD +3.25 A +3.50</t>
+  </si>
+  <si>
+    <t>SUMATORIAS  DE ESF. CON CIL. NO DEBE PASAR DE  ESF +8.00  o -10.00 HASTA (CIL. -6.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1062,21 +1062,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="79.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1111,7 +1110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1128,24 +1127,24 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
       <c r="J2">
         <v>4950</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1160,88 +1159,88 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>4050</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>4150</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1250,30 +1249,30 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>3750</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1282,30 +1281,30 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>4250</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1314,30 +1313,30 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>3850</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1349,59 +1348,59 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
       </c>
       <c r="J9">
         <v>4750</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>4750</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1413,27 +1412,27 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>4300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1445,27 +1444,27 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>4300</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1480,24 +1479,24 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13">
         <v>4950</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1512,24 +1511,24 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1538,30 +1537,30 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1570,30 +1569,30 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16">
         <v>3250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1602,30 +1601,30 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1634,30 +1633,30 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>3350</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1666,30 +1665,30 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <v>3700</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1698,30 +1697,30 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <v>3350</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1733,27 +1732,27 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
         <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
       </c>
       <c r="J21">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1765,27 +1764,27 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1797,27 +1796,27 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23">
         <v>3900</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1829,27 +1828,27 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24">
         <v>3900</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1861,27 +1860,27 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
         <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
       </c>
       <c r="J25">
         <v>4400</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1893,59 +1892,59 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1957,27 +1956,27 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1992,24 +1991,24 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29">
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -2024,24 +2023,24 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
       </c>
       <c r="J30">
         <v>4500</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2056,24 +2055,24 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31">
         <v>4100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -2088,24 +2087,24 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -2117,27 +2116,27 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
       </c>
       <c r="J33">
         <v>4850</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -2149,27 +2148,27 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34">
         <v>4850</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -2181,27 +2180,27 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35">
         <v>4400</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2213,19 +2212,19 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36">
         <v>4400</v>
@@ -2233,7 +2232,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -2242,22 +2241,22 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
         <v>22</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
         <v>23</v>
       </c>
-      <c r="F37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>24</v>
-      </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37">
         <v>4150</v>
@@ -2265,7 +2264,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2274,22 +2273,22 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
         <v>23</v>
       </c>
-      <c r="F38" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38">
         <v>3750</v>
@@ -2297,7 +2296,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -2306,22 +2305,22 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39">
         <v>4250</v>
@@ -2329,7 +2328,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -2338,22 +2337,22 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40">
         <v>3850</v>
@@ -2361,7 +2360,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -2370,22 +2369,22 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41">
         <v>4350</v>
@@ -2393,7 +2392,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2402,22 +2401,22 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42">
         <v>3950</v>
@@ -2425,7 +2424,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2437,19 +2436,19 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
         <v>16</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>18</v>
       </c>
       <c r="J43">
         <v>4850</v>
@@ -2457,7 +2456,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2469,19 +2468,19 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44">
         <v>4850</v>
@@ -2489,7 +2488,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -2501,19 +2500,19 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J45">
         <v>4400</v>
@@ -2521,7 +2520,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2533,19 +2532,19 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46">
         <v>4400</v>
@@ -2553,7 +2552,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -2565,19 +2564,19 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
         <v>16</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>17</v>
-      </c>
-      <c r="I47" t="s">
-        <v>18</v>
       </c>
       <c r="J47">
         <v>4950</v>
@@ -2585,7 +2584,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2597,19 +2596,19 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48">
         <v>4950</v>
@@ -2617,7 +2616,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -2629,19 +2628,19 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49">
         <v>4500</v>
@@ -2649,7 +2648,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2661,19 +2660,19 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50">
         <v>4500</v>
@@ -2681,7 +2680,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -2696,16 +2695,16 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
         <v>16</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>17</v>
-      </c>
-      <c r="I51" t="s">
-        <v>18</v>
       </c>
       <c r="J51">
         <v>5050</v>
@@ -2713,7 +2712,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -2728,16 +2727,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52">
         <v>5050</v>
@@ -2745,7 +2744,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -2760,16 +2759,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53">
         <v>4600</v>
@@ -2777,7 +2776,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2792,24 +2791,24 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
         <v>16</v>
       </c>
-      <c r="H54" t="s">
-        <v>17</v>
-      </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54">
         <v>4600</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -2818,30 +2817,30 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
         <v>23</v>
       </c>
-      <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s">
-        <v>24</v>
-      </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55">
         <v>3700</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -2850,30 +2849,30 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
         <v>22</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
         <v>23</v>
       </c>
-      <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" t="s">
-        <v>24</v>
-      </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56">
         <v>3350</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -2882,30 +2881,30 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57">
         <v>3800</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -2914,30 +2913,30 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58">
         <v>3450</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -2946,30 +2945,30 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -2978,30 +2977,30 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60">
         <v>3550</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -3013,27 +3012,27 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
         <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>18</v>
       </c>
       <c r="J61">
         <v>4400</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -3045,27 +3044,27 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62">
         <v>4000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -3077,27 +3076,27 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J63">
         <v>4000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3109,27 +3108,27 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J64">
         <v>4400</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -3141,27 +3140,27 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J65">
         <v>4500</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -3173,27 +3172,27 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
         <v>17</v>
-      </c>
-      <c r="I66" t="s">
-        <v>18</v>
       </c>
       <c r="J66">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -3205,27 +3204,27 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67">
         <v>4100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -3237,27 +3236,27 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68">
         <v>4100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -3272,24 +3271,24 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J69">
         <v>4600</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3304,24 +3303,24 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
         <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>18</v>
       </c>
       <c r="J70">
         <v>4600</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -3336,24 +3335,24 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J71">
         <v>4200</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -3368,24 +3367,24 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72">
         <v>4200</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -3394,30 +3393,30 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
         <v>22</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
         <v>23</v>
       </c>
-      <c r="F73" t="s">
-        <v>236</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>24</v>
-      </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J73">
         <v>3650</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -3426,30 +3425,30 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
         <v>22</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
         <v>23</v>
       </c>
-      <c r="F74" t="s">
-        <v>236</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s">
-        <v>24</v>
-      </c>
       <c r="I74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J74">
         <v>3280000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -3458,22 +3457,22 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
         <v>22</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" t="s">
-        <v>236</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
-        <v>24</v>
-      </c>
       <c r="I75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J75">
         <v>3280000</v>
@@ -3481,7 +3480,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -3490,22 +3489,22 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
         <v>22</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
         <v>23</v>
       </c>
-      <c r="F76" t="s">
-        <v>237</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" t="s">
-        <v>24</v>
-      </c>
       <c r="I76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J76">
         <v>3380000</v>
@@ -3513,7 +3512,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -3522,30 +3521,30 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
         <v>22</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" t="s">
-        <v>237</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" t="s">
-        <v>24</v>
-      </c>
       <c r="I77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J77">
         <v>3380000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -3554,30 +3553,30 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J78">
         <v>3450000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -3586,22 +3585,22 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J79">
         <v>3450000</v>
@@ -3609,7 +3608,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -3618,22 +3617,22 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J80">
         <v>3550000</v>
@@ -3641,7 +3640,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -3650,30 +3649,30 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J81">
         <v>3550000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -3682,30 +3681,30 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J82">
         <v>3600000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -3714,22 +3713,22 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J83">
         <v>3600000</v>
@@ -3737,7 +3736,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -3746,22 +3745,22 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J84">
         <v>3700000</v>
@@ -3769,7 +3768,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -3778,30 +3777,30 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J85">
         <v>3700000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -3813,27 +3812,27 @@
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
         <v>16</v>
       </c>
-      <c r="H86" t="s">
-        <v>17</v>
-      </c>
       <c r="I86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J86">
         <v>3810000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -3845,27 +3844,27 @@
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" t="s">
-        <v>17</v>
-      </c>
       <c r="I87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J87">
         <v>3810000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -3877,27 +3876,27 @@
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J88">
         <v>3810000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -3909,27 +3908,27 @@
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J89">
         <v>3810000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -3941,27 +3940,27 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J90">
         <v>4020000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -3973,27 +3972,27 @@
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J91">
         <v>4020000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -4005,27 +4004,27 @@
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
         <v>16</v>
       </c>
-      <c r="H92" t="s">
-        <v>17</v>
-      </c>
       <c r="I92" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J92">
         <v>4020000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -4037,27 +4036,27 @@
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
         <v>16</v>
       </c>
-      <c r="H93" t="s">
-        <v>17</v>
-      </c>
       <c r="I93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J93">
         <v>4020000</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -4072,24 +4071,24 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
         <v>16</v>
       </c>
-      <c r="H94" t="s">
-        <v>17</v>
-      </c>
       <c r="I94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J94">
         <v>4170000</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -4104,24 +4103,24 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
         <v>16</v>
       </c>
-      <c r="H95" t="s">
-        <v>17</v>
-      </c>
       <c r="I95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J95">
         <v>4170000</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -4136,24 +4135,24 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J96">
         <v>4170000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -4168,16 +4167,16 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J97">
         <v>4170000</v>
@@ -4185,7 +4184,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -4197,19 +4196,19 @@
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
         <v>16</v>
       </c>
-      <c r="H98" t="s">
-        <v>17</v>
-      </c>
       <c r="I98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J98">
         <v>3910000</v>
@@ -4217,7 +4216,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -4229,19 +4228,19 @@
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
         <v>16</v>
       </c>
-      <c r="H99" t="s">
-        <v>17</v>
-      </c>
       <c r="I99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J99">
         <v>3910000</v>
@@ -4249,7 +4248,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -4261,19 +4260,19 @@
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J100">
         <v>3910000</v>
@@ -4281,7 +4280,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -4293,19 +4292,19 @@
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J101">
         <v>3910000</v>
@@ -4313,7 +4312,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -4325,19 +4324,19 @@
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J102">
         <v>4120000</v>
@@ -4345,7 +4344,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -4357,19 +4356,19 @@
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J103">
         <v>4120000</v>
@@ -4377,7 +4376,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -4389,19 +4388,19 @@
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
         <v>16</v>
       </c>
-      <c r="H104" t="s">
-        <v>17</v>
-      </c>
       <c r="I104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J104">
         <v>4120000</v>
@@ -4409,7 +4408,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -4421,19 +4420,19 @@
         <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F105" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
         <v>16</v>
       </c>
-      <c r="H105" t="s">
-        <v>17</v>
-      </c>
       <c r="I105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J105">
         <v>4120000</v>
@@ -4441,7 +4440,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -4456,16 +4455,16 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J106">
         <v>4270000</v>
@@ -4473,7 +4472,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -4488,16 +4487,16 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J107">
         <v>4270000</v>
@@ -4505,7 +4504,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -4520,16 +4519,16 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
         <v>16</v>
       </c>
-      <c r="H108" t="s">
-        <v>17</v>
-      </c>
       <c r="I108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J108">
         <v>4270000</v>
@@ -4537,7 +4536,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -4552,24 +4551,24 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
         <v>16</v>
       </c>
-      <c r="H109" t="s">
-        <v>17</v>
-      </c>
       <c r="I109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J109">
         <v>4270000</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -4578,30 +4577,30 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
         <v>22</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
+        <v>233</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
         <v>23</v>
       </c>
-      <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" t="s">
-        <v>24</v>
-      </c>
       <c r="I110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J110">
         <v>2980000</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -4610,30 +4609,30 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
         <v>22</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>233</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s">
         <v>23</v>
       </c>
-      <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s">
-        <v>24</v>
-      </c>
       <c r="I111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J111">
         <v>2980000</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -4642,30 +4641,30 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J112">
         <v>3150000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -4674,30 +4673,30 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J113">
         <v>3150000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -4706,30 +4705,30 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J114">
         <v>3300000</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -4738,30 +4737,30 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J115">
         <v>3300000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -4770,30 +4769,30 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J116">
         <v>3400000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -4802,30 +4801,30 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J117">
         <v>3400000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -4834,30 +4833,30 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
         <v>22</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" t="s">
-        <v>62</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H118" t="s">
-        <v>24</v>
-      </c>
       <c r="I118" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J118">
         <v>3080000</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -4866,30 +4865,30 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
         <v>22</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
+        <v>234</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" t="s">
-        <v>62</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
-      <c r="H119" t="s">
-        <v>24</v>
-      </c>
       <c r="I119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J119">
         <v>3080000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -4898,30 +4897,30 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J120">
         <v>3250000</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -4930,30 +4929,30 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J121">
         <v>3250000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -4965,27 +4964,27 @@
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J122">
         <v>3510000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -4997,27 +4996,27 @@
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J123">
         <v>3510000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -5029,27 +5028,27 @@
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J124">
         <v>3510000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -5061,27 +5060,27 @@
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J125">
         <v>3510000</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -5093,27 +5092,27 @@
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J126">
         <v>3720000</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -5125,27 +5124,27 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J127">
         <v>3720000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -5157,27 +5156,27 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J128">
         <v>3720000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -5189,27 +5188,27 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J129">
         <v>3720000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -5224,24 +5223,24 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J130">
         <v>3870000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -5256,24 +5255,24 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J131">
         <v>3870000</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -5288,24 +5287,24 @@
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I132" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J132">
         <v>3870000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -5320,24 +5319,24 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I133" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J133">
         <v>3870000</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -5349,27 +5348,27 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J134">
         <v>3610000</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -5381,27 +5380,27 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J135">
         <v>3610000</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -5413,27 +5412,27 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J136">
         <v>3610000</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -5445,27 +5444,27 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J137">
         <v>3610000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -5477,27 +5476,27 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J138">
         <v>3820000</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -5509,27 +5508,27 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J139">
         <v>3820000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -5541,27 +5540,27 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J140">
         <v>3820000</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -5573,27 +5572,27 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F141" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J141">
         <v>3820000</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -5608,24 +5607,24 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J142">
         <v>3970000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -5640,24 +5639,24 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J143">
         <v>3970000</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -5672,24 +5671,24 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J144">
         <v>3970000</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -5704,24 +5703,24 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J145">
         <v>3970000</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -5733,27 +5732,27 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J146">
         <v>4750</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -5765,27 +5764,27 @@
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J147">
         <v>4300</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -5797,27 +5796,27 @@
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J148">
         <v>4300</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -5829,27 +5828,27 @@
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J149">
         <v>4750</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -5861,27 +5860,27 @@
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J150">
         <v>4850</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -5893,27 +5892,27 @@
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J151">
         <v>4400</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -5925,27 +5924,27 @@
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J152">
         <v>4850</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -5957,27 +5956,27 @@
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J153">
         <v>4400</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -5992,24 +5991,24 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J154">
         <v>4950</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -6024,24 +6023,24 @@
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J155">
         <v>4500</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -6056,24 +6055,24 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J156">
         <v>4500</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -6088,16 +6087,16 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J157">
         <v>4950</v>
@@ -6105,7 +6104,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -6120,16 +6119,16 @@
         <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J158">
         <v>5050</v>
@@ -6137,7 +6136,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -6152,16 +6151,16 @@
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H159" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J159">
         <v>4600</v>
@@ -6169,7 +6168,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -6184,16 +6183,16 @@
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J160">
         <v>4600</v>
@@ -6201,7 +6200,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -6216,16 +6215,16 @@
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J161">
         <v>5050</v>
@@ -6233,7 +6232,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -6245,19 +6244,19 @@
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J162">
         <v>4950</v>
@@ -6265,7 +6264,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -6277,19 +6276,19 @@
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F163" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J163">
         <v>4500</v>
@@ -6297,7 +6296,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -6309,19 +6308,19 @@
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F164" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J164">
         <v>4500</v>
@@ -6329,7 +6328,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -6341,19 +6340,19 @@
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F165" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J165">
         <v>4950</v>
@@ -6361,7 +6360,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -6373,19 +6372,19 @@
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J166">
         <v>4850</v>
@@ -6393,7 +6392,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -6405,19 +6404,19 @@
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J167">
         <v>4400</v>
@@ -6425,7 +6424,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -6437,19 +6436,19 @@
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J168">
         <v>4400</v>
@@ -6457,7 +6456,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -6469,27 +6468,27 @@
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F169" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J169">
         <v>4850</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -6501,27 +6500,27 @@
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J170">
         <v>4300</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -6533,27 +6532,27 @@
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J171">
         <v>3900</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -6565,27 +6564,27 @@
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H172" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J172">
         <v>3900</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -6597,27 +6596,27 @@
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J173">
         <v>4300</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -6629,27 +6628,27 @@
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J174">
         <v>4400</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -6661,27 +6660,27 @@
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J175">
         <v>4000</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -6693,27 +6692,27 @@
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J176">
         <v>4400</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -6728,24 +6727,24 @@
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J177">
         <v>4500</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -6760,24 +6759,24 @@
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J178">
         <v>4100</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -6792,24 +6791,24 @@
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H179" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J179">
         <v>4500</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -6824,24 +6823,24 @@
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H180" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J180">
         <v>4100</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -6856,24 +6855,24 @@
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J181">
         <v>4600</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -6888,24 +6887,24 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H182" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J182">
         <v>4200</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -6920,24 +6919,24 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J183">
         <v>4600</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -6952,24 +6951,24 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J184">
         <v>4200</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -6981,27 +6980,27 @@
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F185" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J185">
         <v>4500</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -7013,27 +7012,27 @@
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F186" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J186">
         <v>4100</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -7045,27 +7044,27 @@
         <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F187" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H187" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J187">
         <v>4100</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -7077,27 +7076,27 @@
         <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F188" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H188" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J188">
         <v>4500</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -7109,27 +7108,27 @@
         <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F189" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H189" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J189">
         <v>4400</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -7141,27 +7140,27 @@
         <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H190" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J190">
         <v>4000</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -7173,27 +7172,27 @@
         <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J191">
         <v>4000</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -7205,421 +7204,412 @@
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J192">
         <v>4400</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>220</v>
+      </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="s">
+        <v>235</v>
+      </c>
+      <c r="G193" t="s">
         <v>221</v>
       </c>
-      <c r="B193" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" t="s">
-        <v>222</v>
-      </c>
-      <c r="D193" t="s">
-        <v>22</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="H193" t="s">
         <v>23</v>
       </c>
-      <c r="F193" t="s">
-        <v>223</v>
-      </c>
-      <c r="G193" t="s">
-        <v>224</v>
-      </c>
-      <c r="H193" t="s">
-        <v>24</v>
-      </c>
       <c r="I193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J193">
         <v>1700</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D194" t="s">
+        <v>21</v>
+      </c>
+      <c r="E194" t="s">
         <v>22</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
+        <v>235</v>
+      </c>
+      <c r="G194" t="s">
+        <v>221</v>
+      </c>
+      <c r="H194" t="s">
         <v>23</v>
       </c>
-      <c r="F194" t="s">
-        <v>223</v>
-      </c>
-      <c r="G194" t="s">
-        <v>224</v>
-      </c>
-      <c r="H194" t="s">
-        <v>24</v>
-      </c>
       <c r="I194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J194">
         <v>1550</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G195" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J195">
         <v>1800</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F196" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G196" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J196">
         <v>1650</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G197" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J197">
         <v>1950</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G198" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J198">
         <v>1750</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D199" t="s">
+        <v>21</v>
+      </c>
+      <c r="E199" t="s">
         <v>22</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
+        <v>235</v>
+      </c>
+      <c r="G199" t="s">
+        <v>221</v>
+      </c>
+      <c r="H199" t="s">
         <v>23</v>
       </c>
-      <c r="F199" t="s">
-        <v>223</v>
-      </c>
-      <c r="G199" t="s">
-        <v>224</v>
-      </c>
-      <c r="H199" t="s">
-        <v>24</v>
-      </c>
       <c r="I199" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J199">
         <v>1700000</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D200" t="s">
+        <v>21</v>
+      </c>
+      <c r="E200" t="s">
         <v>22</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
+        <v>235</v>
+      </c>
+      <c r="G200" t="s">
+        <v>221</v>
+      </c>
+      <c r="H200" t="s">
         <v>23</v>
       </c>
-      <c r="F200" t="s">
-        <v>223</v>
-      </c>
-      <c r="G200" t="s">
-        <v>224</v>
-      </c>
-      <c r="H200" t="s">
-        <v>24</v>
-      </c>
       <c r="I200" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J200">
         <v>1700000</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G201" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J201">
         <v>1800000</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F202" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G202" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I202" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J202">
         <v>1800000</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G203" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I203" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J203">
         <v>1950000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G204" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I204" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J204">
         <v>1950000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J204" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="ADD +3.25 A +3.50"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="RODENSTOCK BIG NORM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J204" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>